--- a/Datos/Anuario2024/130301_BibliotecasArchivos.xlsx
+++ b/Datos/Anuario2024/130301_BibliotecasArchivos.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="768" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="768"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="91" r:id="rId1"/>
+    <sheet name="1" sheetId="75" r:id="rId2"/>
+    <sheet name="2" sheetId="90" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -25,6 +31,7 @@
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_1" localSheetId="1">'1'!#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
@@ -49,113 +56,418 @@
     <definedName name="_R6_3">'[3]11.2'!$A$1:$F$17</definedName>
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="1">'1'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
+  <si>
+    <t>Centro Universitario EDEM</t>
+  </si>
+  <si>
+    <t>Biblioteca de la Mujer</t>
+  </si>
+  <si>
+    <t>Isabel de Villena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biblioteca del Mar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Al-Russafí </t>
+  </si>
+  <si>
+    <t>Vicent Casp i Verger</t>
+  </si>
+  <si>
+    <t>Petxina</t>
+  </si>
+  <si>
+    <t>Constantí Llombart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNED </t>
+  </si>
+  <si>
+    <t>Bibliotecas Universitarias</t>
+  </si>
+  <si>
+    <t>Universidad Católica San Vicente Mártir</t>
+  </si>
+  <si>
+    <t>Carmelina Sánchez-Cutillas</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Bibliotecas Municipales</t>
+  </si>
+  <si>
+    <t>Otras Bibliotecas</t>
+  </si>
+  <si>
+    <t>Volúmenes</t>
+  </si>
+  <si>
+    <t>Publicaciones</t>
+  </si>
+  <si>
+    <t>Préstamos</t>
+  </si>
+  <si>
+    <t>Investigadores</t>
+  </si>
+  <si>
+    <t>Metros lineales de documentos</t>
+  </si>
+  <si>
+    <t>Volúmenes biblioteca auxiliar</t>
+  </si>
+  <si>
+    <t>Consultas de documentos</t>
+  </si>
+  <si>
+    <t>Deportiva Municipal</t>
+  </si>
+  <si>
+    <t>Centro Florida Universitaria</t>
+  </si>
+  <si>
+    <t>Universitat de València</t>
+  </si>
+  <si>
+    <t>Archivo Histórico de la C. Valenciana</t>
+  </si>
+  <si>
+    <t>Universitat Politècnica</t>
+  </si>
+  <si>
+    <t>Hemeroteca Municipal</t>
+  </si>
+  <si>
+    <t>Eduard Escalante</t>
+  </si>
+  <si>
+    <t>Archivo del Reino</t>
+  </si>
+  <si>
+    <t>Documentos de archivo</t>
+  </si>
+  <si>
+    <t>Compositores Valencianos</t>
+  </si>
+  <si>
+    <t>Biblioteca Valenciana Nicolau Primitiu</t>
+  </si>
+  <si>
+    <t>Joaquim Martí i Gadea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Santiro i Font </t>
+  </si>
+  <si>
+    <t>Biblioteca Auxiliar del Archivo del Reino</t>
+  </si>
+  <si>
+    <t>Carles Ros</t>
+  </si>
+  <si>
+    <t>María Beneyto</t>
+  </si>
+  <si>
+    <t>Puestos lectura</t>
+  </si>
+  <si>
+    <t>María Moliner</t>
+  </si>
+  <si>
+    <t>Germana de Foix</t>
+  </si>
+  <si>
+    <t>Azorín</t>
+  </si>
+  <si>
+    <t>Joanot Martorell</t>
+  </si>
+  <si>
+    <t>Joan de Timoneda</t>
+  </si>
+  <si>
+    <t>Lluís Fullana i Mira</t>
+  </si>
+  <si>
+    <t>Josep Maria Bayarri</t>
+  </si>
+  <si>
+    <t>Biblioteca del Museo de Prehistoria</t>
+  </si>
+  <si>
+    <t>Biblioteca de Etnología</t>
+  </si>
+  <si>
+    <t>Francesc Almela i Vives</t>
+  </si>
+  <si>
+    <t>Palau de l'Exposició</t>
+  </si>
+  <si>
+    <t>Vicent Boix i Ricarte</t>
+  </si>
+  <si>
+    <t>Tomàs Vicent Tosca</t>
+  </si>
+  <si>
+    <t>Casa de la Reina</t>
+  </si>
+  <si>
+    <t>IVAM</t>
+  </si>
+  <si>
+    <t>Biblioteca Ateneo Mercantil</t>
+  </si>
+  <si>
+    <t>Roïç de Corella</t>
+  </si>
+  <si>
+    <t>Carola Reig Salvà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan Churat i Saurí </t>
+  </si>
+  <si>
+    <t>Vicent Tortosa i Biosca</t>
+  </si>
+  <si>
+    <t>Serrano Morales</t>
+  </si>
+  <si>
+    <t>Biblioteca del MuVIM</t>
+  </si>
+  <si>
+    <t>Teodor Llorente</t>
+  </si>
+  <si>
+    <t>Histórica Municipal</t>
+  </si>
+  <si>
+    <t>Archivo Histórico Municipal</t>
+  </si>
+  <si>
+    <t>Arzobispado de València (Archivo Diocesano); Diputació de València (Archivo General y Fotográfico).</t>
+  </si>
+  <si>
+    <t>Gregori Maians i Siscar</t>
+  </si>
+  <si>
+    <t>Universidad Europea de València</t>
+  </si>
+  <si>
+    <t>Matilde Ramos</t>
+  </si>
+  <si>
+    <t>Archivo Intermedio Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viveros </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Universidad Cardenal Herrera - CEU </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Biblitoteca Pública del Estado en València Pilar Faus</t>
+  </si>
+  <si>
+    <t>VIU</t>
+  </si>
+  <si>
+    <t>BIBLIOTECAS Y ARCHIVOS</t>
+  </si>
+  <si>
+    <t>Personas investigadoras / Lectoras</t>
+  </si>
+  <si>
+    <t>Archivo Gral. y Fotográfico de la Diputación de València</t>
+  </si>
+  <si>
+    <t>1. Bibliotecas. 2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2. Archivos. 2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bellas Artes (Calle San Pío V) </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nota: (*) Debido al traslado de parte de los Fondos y Documentación Auxiliar del Archivo Diocesano, no se ha realizado inventario alguno en el año 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: S. Patrimonio Histórico y Artístico. Ayuntamiento de València (Archivo Histórico Municipal, Archivo Intermedio Municipal); G. Valenciana (Archivo del Reino, Archivo Histórico de la Comunitat Valenciana); </t>
+  </si>
+  <si>
+    <t>Archivo Diocesano (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Servicio de Acción Cultural. Ayuntamiento Valencia; S. Patrimonio Histórico y Cultural del Ayuntamiento de València (Serrano Morales); G. Valenciana (Bibl. Valenciana, Bibl. Pública, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibl. Bellas Artes y Bibl. Auxiliar del Archivo del Reino); U. València y U. Politécnica València; Dirección General de la Mujer; R.S.E. Amigos del País;   </t>
+  </si>
+  <si>
+    <t>Ateneo Mercantil de Valencia; IVAM; Diputación de Valencia (Biblioteca de Etnología; Biblioteca de Prehistoria y Biblioteca del MuVIM); Facultad de Teología San Vicente Ferrer;</t>
+  </si>
+  <si>
+    <t>Universidad Cardenal Herrera - CEU; Universidad Católica San Vicente Mártir; Centro Florida Universitaria; Universidad Europea de Madrid; Centro Universitario EDEM.</t>
+  </si>
+  <si>
+    <r>
+      <t>Biblioteca Museo Taurino</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nota: (1) Uso restringido a investigadores. Cerrada al púlico desde febrero de 2016. (2) Incluye la biblioteca de la Facultad de Teología San Vicente Ferrer. (3) Cerrada en el 2023.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000080"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -191,143 +503,144 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 2 2 2" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -396,13 +709,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -643,8 +974,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5145,8 +5476,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5846,2235 +6177,1843 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="31.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="55" t="inlineStr">
-        <is>
-          <t>BIBLIOTECAS Y ARCHIVOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja25">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="44.7109375" customWidth="1" style="32" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="32" min="2" max="2"/>
-    <col width="13.42578125" customWidth="1" style="32" min="3" max="3"/>
-    <col width="12.140625" customWidth="1" style="32" min="4" max="4"/>
-    <col width="13.42578125" customWidth="1" style="32" min="5" max="6"/>
-    <col width="13.42578125" customWidth="1" style="32" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" style="32" min="8" max="16384"/>
+    <col min="1" max="1" width="44.7109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="55" t="inlineStr">
-        <is>
-          <t>1. Bibliotecas. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="15" t="n"/>
-      <c r="C1" s="15" t="n"/>
-      <c r="D1" s="15" t="n"/>
-      <c r="E1" s="15" t="n"/>
-      <c r="F1" s="15" t="n"/>
-      <c r="G1" s="15" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="n"/>
-      <c r="B2" s="15" t="n"/>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="2">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Volúmenes</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Publicaciones</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Préstamos</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Usuarios</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Investigadores</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr">
-        <is>
-          <t>Puestos lectura</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="41" t="inlineStr">
-        <is>
-          <t>Bibliotecas Municipales</t>
-        </is>
-      </c>
-      <c r="B4" s="53" t="n"/>
-      <c r="C4" s="53" t="n"/>
-      <c r="D4" s="53" t="n"/>
-      <c r="E4" s="53" t="n"/>
-      <c r="F4" s="53" t="n"/>
-      <c r="G4" s="53" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="39" t="inlineStr">
-        <is>
-          <t>Azorín</t>
-        </is>
-      </c>
-      <c r="B5" s="28" t="n">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="28">
         <v>21909</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="28">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D5" s="28">
         <v>22021</v>
       </c>
-      <c r="E5" s="28" t="n">
+      <c r="E5" s="28">
         <v>19087</v>
       </c>
-      <c r="F5" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" s="28" t="n">
+      <c r="F5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="28">
         <v>80</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biblioteca del Mar </t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="n">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20">
         <v>13077</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="20">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="20">
         <v>5075</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="20">
         <v>10379</v>
       </c>
-      <c r="F6" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" s="20" t="n">
+      <c r="F6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="20">
         <v>98</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="39" t="inlineStr">
-        <is>
-          <t>Carles Ros</t>
-        </is>
-      </c>
-      <c r="B7" s="28" t="n">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="28">
         <v>8978</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="28">
         <v>4</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="28">
         <v>6655</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="28">
         <v>6768</v>
       </c>
-      <c r="F7" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="28" t="n">
+      <c r="F7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="38" t="inlineStr">
-        <is>
-          <t>Carmelina Sánchez-Cutillas</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="n">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="20">
         <v>15469</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="20">
         <v>4</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="20">
         <v>13099</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="20">
         <v>20281</v>
       </c>
-      <c r="F8" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="20" t="n">
+      <c r="F8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="20">
         <v>172</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="2">
-      <c r="A9" s="39" t="inlineStr">
-        <is>
-          <t>Carola Reig Salvà</t>
-        </is>
-      </c>
-      <c r="B9" s="28" t="n">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="28">
         <v>15761</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="28">
         <v>4</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="28">
         <v>20411</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="28">
         <v>25502</v>
       </c>
-      <c r="F9" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="28" t="n">
+      <c r="F9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="28">
         <v>94</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="2">
-      <c r="A10" s="38" t="inlineStr">
-        <is>
-          <t>Casa de la Reina</t>
-        </is>
-      </c>
-      <c r="B10" s="20" t="n">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="20">
         <v>11339</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="20">
         <v>4</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="20">
         <v>16694</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="20">
         <v>21988</v>
       </c>
-      <c r="F10" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="20" t="n">
+      <c r="F10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="20">
         <v>129</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="2">
-      <c r="A11" s="39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clara Santiro i Font </t>
-        </is>
-      </c>
-      <c r="B11" s="28" t="n">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="28">
         <v>14936</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="28">
         <v>4</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="28">
         <v>14711</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="28">
         <v>19860</v>
       </c>
-      <c r="F11" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" s="28" t="n">
+      <c r="F11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="28">
         <v>144</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="2">
-      <c r="A12" s="38" t="inlineStr">
-        <is>
-          <t>Constantí Llombart</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="n">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="20">
         <v>20470</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="20">
         <v>4</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="20">
         <v>9037</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="20">
         <v>7747</v>
       </c>
-      <c r="F12" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" s="20" t="n">
+      <c r="F12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="20">
         <v>107</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="2">
-      <c r="A13" s="39" t="inlineStr">
-        <is>
-          <t>Eduard Escalante</t>
-        </is>
-      </c>
-      <c r="B13" s="28" t="n">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="28">
         <v>21402</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="28">
         <v>7</v>
       </c>
-      <c r="D13" s="28" t="n">
+      <c r="D13" s="28">
         <v>12677</v>
       </c>
-      <c r="E13" s="28" t="n">
+      <c r="E13" s="28">
         <v>25084</v>
       </c>
-      <c r="F13" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="28" t="n">
+      <c r="F13" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="28">
         <v>120</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="2">
-      <c r="A14" s="38" t="inlineStr">
-        <is>
-          <t>Francesc Almela i Vives</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="n">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="20">
         <v>8722</v>
       </c>
-      <c r="C14" s="20" t="n">
+      <c r="C14" s="20">
         <v>10</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="20">
         <v>10653</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="E14" s="20">
         <v>13176</v>
       </c>
-      <c r="F14" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="20" t="n">
+      <c r="F14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="20">
         <v>71</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="2">
-      <c r="A15" s="39" t="inlineStr">
-        <is>
-          <t>Germana de Foix</t>
-        </is>
-      </c>
-      <c r="B15" s="28" t="n">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="28">
         <v>17076</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="28">
         <v>4</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="28">
         <v>4968</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="28">
         <v>8905</v>
       </c>
-      <c r="F15" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" s="28" t="n">
+      <c r="F15" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="28">
         <v>86</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="2">
-      <c r="A16" s="38" t="inlineStr">
-        <is>
-          <t>Gregori Maians i Siscar</t>
-        </is>
-      </c>
-      <c r="B16" s="20" t="n">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="20">
         <v>11764</v>
       </c>
-      <c r="C16" s="20" t="n">
+      <c r="C16" s="20">
         <v>4</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="20">
         <v>8499</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="20">
         <v>14674</v>
       </c>
-      <c r="F16" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="20" t="n">
+      <c r="F16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="20">
         <v>86</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="2">
-      <c r="A17" s="39" t="inlineStr">
-        <is>
-          <t>Isabel de Villena</t>
-        </is>
-      </c>
-      <c r="B17" s="28" t="n">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="28">
         <v>9978</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="28">
         <v>4</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="28">
         <v>9250</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="28">
         <v>15225</v>
       </c>
-      <c r="F17" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="28" t="n">
+      <c r="F17" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="28">
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="2">
-      <c r="A18" s="38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joan Churat i Saurí </t>
-        </is>
-      </c>
-      <c r="B18" s="20" t="n">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="20">
         <v>5280</v>
       </c>
-      <c r="C18" s="20" t="n">
+      <c r="C18" s="20">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="20">
         <v>1505</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="20">
         <v>6005</v>
       </c>
-      <c r="F18" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="20" t="n">
+      <c r="F18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="20">
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="2">
-      <c r="A19" s="39" t="inlineStr">
-        <is>
-          <t>Joan de Timoneda</t>
-        </is>
-      </c>
-      <c r="B19" s="28" t="n">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="28">
         <v>13870</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="28">
         <v>4</v>
       </c>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="28">
         <v>13277</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="28">
         <v>16978</v>
       </c>
-      <c r="F19" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" s="28" t="n">
+      <c r="F19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="28">
         <v>164</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="2">
-      <c r="A20" s="38" t="inlineStr">
-        <is>
-          <t>Joanot Martorell</t>
-        </is>
-      </c>
-      <c r="B20" s="20" t="n">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="20">
         <v>20038</v>
       </c>
-      <c r="C20" s="20" t="n">
+      <c r="C20" s="20">
         <v>16</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="20">
         <v>13994</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="20">
         <v>25143</v>
       </c>
-      <c r="F20" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" s="20" t="n">
+      <c r="F20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="20">
         <v>193</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="2">
-      <c r="A21" s="39" t="inlineStr">
-        <is>
-          <t>Joaquim Martí i Gadea</t>
-        </is>
-      </c>
-      <c r="B21" s="28" t="n">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="28">
         <v>15664</v>
       </c>
-      <c r="C21" s="28" t="n">
+      <c r="C21" s="28">
         <v>5</v>
       </c>
-      <c r="D21" s="28" t="n">
+      <c r="D21" s="28">
         <v>14648</v>
       </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="28">
         <v>17983</v>
       </c>
-      <c r="F21" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" s="28" t="n">
+      <c r="F21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="28">
         <v>114</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="2">
-      <c r="A22" s="38" t="inlineStr">
-        <is>
-          <t>Josep Maria Bayarri</t>
-        </is>
-      </c>
-      <c r="B22" s="20" t="n">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="20">
         <v>5355</v>
       </c>
-      <c r="C22" s="20" t="n">
+      <c r="C22" s="20">
         <v>4</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="20">
         <v>4191</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="20">
         <v>7474</v>
       </c>
-      <c r="F22" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" s="20" t="n">
+      <c r="F22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="20">
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="2">
-      <c r="A23" s="39" t="inlineStr">
-        <is>
-          <t>Lluís Fullana i Mira</t>
-        </is>
-      </c>
-      <c r="B23" s="28" t="n">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="28">
         <v>20719</v>
       </c>
-      <c r="C23" s="28" t="n">
+      <c r="C23" s="28">
         <v>5</v>
       </c>
-      <c r="D23" s="28" t="n">
+      <c r="D23" s="28">
         <v>12631</v>
       </c>
-      <c r="E23" s="28" t="n">
+      <c r="E23" s="28">
         <v>15320</v>
       </c>
-      <c r="F23" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="28" t="n">
+      <c r="F23" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="28">
         <v>220</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="2">
-      <c r="A24" s="38" t="inlineStr">
-        <is>
-          <t>María Beneyto</t>
-        </is>
-      </c>
-      <c r="B24" s="20" t="n">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="20">
         <v>12879</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="20">
         <v>4</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="20">
         <v>12737</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="20">
         <v>15433</v>
       </c>
-      <c r="F24" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="20" t="n">
+      <c r="F24" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="20">
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="2">
-      <c r="A25" s="39" t="inlineStr">
-        <is>
-          <t>María Moliner</t>
-        </is>
-      </c>
-      <c r="B25" s="28" t="n">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="28">
         <v>15071</v>
       </c>
-      <c r="C25" s="28" t="n">
+      <c r="C25" s="28">
         <v>4</v>
       </c>
-      <c r="D25" s="28" t="n">
+      <c r="D25" s="28">
         <v>18991</v>
       </c>
-      <c r="E25" s="28" t="n">
+      <c r="E25" s="28">
         <v>18039</v>
       </c>
-      <c r="F25" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" s="28" t="n">
+      <c r="F25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="28">
         <v>60</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="2">
-      <c r="A26" s="38" t="inlineStr">
-        <is>
-          <t>Matilde Ramos</t>
-        </is>
-      </c>
-      <c r="B26" s="20" t="n">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="20">
         <v>5742</v>
       </c>
-      <c r="C26" s="20" t="n">
+      <c r="C26" s="20">
         <v>4</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="D26" s="20">
         <v>2543</v>
       </c>
-      <c r="E26" s="20" t="n">
+      <c r="E26" s="20">
         <v>5348</v>
       </c>
-      <c r="F26" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" s="20" t="n">
+      <c r="F26" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="20">
         <v>62</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="2">
-      <c r="A27" s="39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nova Al-Russafí </t>
-        </is>
-      </c>
-      <c r="B27" s="28" t="n">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="28">
         <v>16904</v>
       </c>
-      <c r="C27" s="28" t="n">
+      <c r="C27" s="28">
         <v>4</v>
       </c>
-      <c r="D27" s="28" t="n">
+      <c r="D27" s="28">
         <v>15898</v>
       </c>
-      <c r="E27" s="28" t="n">
+      <c r="E27" s="28">
         <v>32173</v>
       </c>
-      <c r="F27" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" s="28" t="n">
+      <c r="F27" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="28">
         <v>114</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="2">
-      <c r="A28" s="38" t="inlineStr">
-        <is>
-          <t>Palau de l'Exposició</t>
-        </is>
-      </c>
-      <c r="B28" s="20" t="n">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="20">
         <v>11154</v>
       </c>
-      <c r="C28" s="20" t="n">
+      <c r="C28" s="20">
         <v>4</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="20">
         <v>8966</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="E28" s="20">
         <v>30624</v>
       </c>
-      <c r="F28" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" s="20" t="n">
+      <c r="F28" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="20">
         <v>102</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="2">
-      <c r="A29" s="39" t="inlineStr">
-        <is>
-          <t>Petxina</t>
-        </is>
-      </c>
-      <c r="B29" s="28" t="n">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="28">
         <v>23303</v>
       </c>
-      <c r="C29" s="28" t="n">
+      <c r="C29" s="28">
         <v>4</v>
       </c>
-      <c r="D29" s="28" t="n">
+      <c r="D29" s="28">
         <v>14697</v>
       </c>
-      <c r="E29" s="28" t="n">
+      <c r="E29" s="28">
         <v>33247</v>
       </c>
-      <c r="F29" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" s="28" t="n">
+      <c r="F29" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="28">
         <v>172</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="2">
-      <c r="A30" s="38" t="inlineStr">
-        <is>
-          <t>Roïç de Corella</t>
-        </is>
-      </c>
-      <c r="B30" s="20" t="n">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="20">
         <v>12457</v>
       </c>
-      <c r="C30" s="20" t="n">
+      <c r="C30" s="20">
         <v>7</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="20">
         <v>15228</v>
       </c>
-      <c r="E30" s="20" t="n">
+      <c r="E30" s="20">
         <v>30193</v>
       </c>
-      <c r="F30" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G30" s="20" t="n">
+      <c r="F30" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="20">
         <v>64</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="2">
-      <c r="A31" s="39" t="inlineStr">
-        <is>
-          <t>Teodor Llorente</t>
-        </is>
-      </c>
-      <c r="B31" s="28" t="n">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="28">
         <v>10320</v>
       </c>
-      <c r="C31" s="28" t="n">
+      <c r="C31" s="28">
         <v>4</v>
       </c>
-      <c r="D31" s="28" t="n">
+      <c r="D31" s="28">
         <v>2789</v>
       </c>
-      <c r="E31" s="28" t="n">
+      <c r="E31" s="28">
         <v>7931</v>
       </c>
-      <c r="F31" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G31" s="28" t="n">
+      <c r="F31" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="28">
         <v>75</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="2">
-      <c r="A32" s="38" t="inlineStr">
-        <is>
-          <t>Tomàs Vicent Tosca</t>
-        </is>
-      </c>
-      <c r="B32" s="20" t="n">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="20">
         <v>20983</v>
       </c>
-      <c r="C32" s="20" t="n">
+      <c r="C32" s="20">
         <v>4</v>
       </c>
-      <c r="D32" s="20" t="n">
+      <c r="D32" s="20">
         <v>18703</v>
       </c>
-      <c r="E32" s="20" t="n">
+      <c r="E32" s="20">
         <v>38079</v>
       </c>
-      <c r="F32" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G32" s="20" t="n">
+      <c r="F32" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="20">
         <v>163</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="2">
-      <c r="A33" s="39" t="inlineStr">
-        <is>
-          <t>Vicent Boix i Ricarte</t>
-        </is>
-      </c>
-      <c r="B33" s="28" t="n">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="28">
         <v>16185</v>
       </c>
-      <c r="C33" s="28" t="n">
+      <c r="C33" s="28">
         <v>4</v>
       </c>
-      <c r="D33" s="28" t="n">
+      <c r="D33" s="28">
         <v>4512</v>
       </c>
-      <c r="E33" s="28" t="n">
+      <c r="E33" s="28">
         <v>7328</v>
       </c>
-      <c r="F33" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G33" s="28" t="n">
+      <c r="F33" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="28">
         <v>99</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="2">
-      <c r="A34" s="38" t="inlineStr">
-        <is>
-          <t>Vicent Casp i Verger</t>
-        </is>
-      </c>
-      <c r="B34" s="20" t="n">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="20">
         <v>13078</v>
       </c>
-      <c r="C34" s="20" t="n">
+      <c r="C34" s="20">
         <v>4</v>
       </c>
-      <c r="D34" s="20" t="n">
+      <c r="D34" s="20">
         <v>14745</v>
       </c>
-      <c r="E34" s="20" t="n">
+      <c r="E34" s="20">
         <v>25287</v>
       </c>
-      <c r="F34" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" s="20" t="n">
+      <c r="F34" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="20">
         <v>104</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="2">
-      <c r="A35" s="39" t="inlineStr">
-        <is>
-          <t>Vicent Tortosa i Biosca</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="28">
         <v>8152</v>
       </c>
-      <c r="C35" s="28" t="n">
+      <c r="C35" s="28">
         <v>4</v>
       </c>
-      <c r="D35" s="28" t="n">
+      <c r="D35" s="28">
         <v>3520</v>
       </c>
-      <c r="E35" s="28" t="n">
+      <c r="E35" s="28">
         <v>6172</v>
       </c>
-      <c r="F35" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" s="28" t="n">
+      <c r="F35" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="28">
         <v>70</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="2">
-      <c r="A36" s="38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viveros </t>
-        </is>
-      </c>
-      <c r="B36" s="20" t="n">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="20">
         <v>6245</v>
       </c>
-      <c r="C36" s="20" t="n">
+      <c r="C36" s="20">
         <v>4</v>
       </c>
-      <c r="D36" s="20" t="n">
+      <c r="D36" s="20">
         <v>11641</v>
       </c>
-      <c r="E36" s="20" t="n">
+      <c r="E36" s="20">
         <v>12828</v>
       </c>
-      <c r="F36" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G36" s="20" t="n">
+      <c r="F36" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="20">
         <v>54</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="2">
-      <c r="A37" s="39" t="inlineStr">
-        <is>
-          <t>Hemeroteca Municipal</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="28">
         <v>15869</v>
       </c>
-      <c r="C37" s="28" t="n">
+      <c r="C37" s="28">
         <v>6642</v>
       </c>
-      <c r="D37" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E37" s="28" t="n">
+      <c r="D37" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="28">
         <v>4165</v>
       </c>
-      <c r="F37" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G37" s="28" t="n">
+      <c r="F37" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="28">
         <v>40</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="2">
-      <c r="A38" s="38" t="inlineStr">
-        <is>
-          <t>Deportiva Municipal</t>
-        </is>
-      </c>
-      <c r="B38" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C38" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D38" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E38" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F38" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G38" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="2">
-      <c r="A39" s="39" t="inlineStr">
-        <is>
-          <t>Histórica Municipal</t>
-        </is>
-      </c>
-      <c r="B39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="2">
-      <c r="A40" s="38" t="inlineStr">
-        <is>
-          <t>Compositores Valencianos</t>
-        </is>
-      </c>
-      <c r="B40" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C40" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D40" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E40" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F40" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G40" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="32">
-      <c r="A41" s="39" t="inlineStr">
-        <is>
-          <t>Serrano Morales</t>
-        </is>
-      </c>
-      <c r="B41" s="28" t="n">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="28">
         <v>27223</v>
       </c>
-      <c r="C41" s="28" t="n">
+      <c r="C41" s="28">
         <v>527</v>
       </c>
-      <c r="D41" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E41" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F41" s="28" t="n">
+      <c r="D41" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="28">
         <v>195</v>
       </c>
-      <c r="G41" s="28" t="n">
+      <c r="G41" s="28">
         <v>22</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="2">
-      <c r="A42" s="41" t="inlineStr">
-        <is>
-          <t>Bibliotecas Universitarias</t>
-        </is>
-      </c>
-      <c r="B42" s="20" t="n"/>
-      <c r="C42" s="20" t="n"/>
-      <c r="D42" s="20" t="n"/>
-      <c r="E42" s="20" t="n"/>
-      <c r="F42" s="20" t="n"/>
-      <c r="G42" s="20" t="n"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="2">
-      <c r="A43" s="39" t="inlineStr">
-        <is>
-          <t>Universitat de València</t>
-        </is>
-      </c>
-      <c r="B43" s="28" t="n">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="28">
         <v>2177557</v>
       </c>
-      <c r="C43" s="28" t="n">
+      <c r="C43" s="28">
         <v>81686</v>
       </c>
-      <c r="D43" s="28" t="n">
+      <c r="D43" s="28">
         <v>286779</v>
       </c>
-      <c r="E43" s="28" t="n">
+      <c r="E43" s="28">
         <v>65038</v>
       </c>
-      <c r="F43" s="28" t="n">
+      <c r="F43" s="28">
         <v>4696</v>
       </c>
-      <c r="G43" s="28" t="n">
+      <c r="G43" s="28">
         <v>5404</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="2">
-      <c r="A44" s="38" t="inlineStr">
-        <is>
-          <t>Universitat Politècnica</t>
-        </is>
-      </c>
-      <c r="B44" s="20" t="n">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="20">
         <v>569150</v>
       </c>
-      <c r="C44" s="20" t="n">
+      <c r="C44" s="20">
         <v>120135</v>
       </c>
-      <c r="D44" s="20" t="n">
+      <c r="D44" s="20">
         <v>203979</v>
       </c>
-      <c r="E44" s="20" t="n">
+      <c r="E44" s="20">
         <v>39666</v>
       </c>
-      <c r="F44" s="20" t="n">
+      <c r="F44" s="20">
         <v>3275</v>
       </c>
-      <c r="G44" s="20" t="n">
+      <c r="G44" s="20">
         <v>3208</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="2">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNED </t>
-        </is>
-      </c>
-      <c r="B45" s="28" t="n">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="28">
         <v>49579</v>
       </c>
-      <c r="C45" s="28" t="n">
+      <c r="C45" s="28">
         <v>27</v>
       </c>
-      <c r="D45" s="28" t="n">
+      <c r="D45" s="28">
         <v>8982</v>
       </c>
-      <c r="E45" s="28" t="n">
+      <c r="E45" s="28">
         <v>877</v>
       </c>
-      <c r="F45" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G45" s="28" t="n">
+      <c r="F45" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="28">
         <v>90</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="2">
-      <c r="A46" s="10" t="inlineStr">
-        <is>
-          <t>Universidad Cardenal Herrera - CEU (2)</t>
-        </is>
-      </c>
-      <c r="B46" s="20" t="n">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="20">
         <v>170730</v>
       </c>
-      <c r="C46" s="20" t="n">
+      <c r="C46" s="20">
         <v>18764</v>
       </c>
-      <c r="D46" s="20" t="n">
+      <c r="D46" s="20">
         <v>4369</v>
       </c>
-      <c r="E46" s="20" t="n">
+      <c r="E46" s="20">
         <v>12482</v>
       </c>
-      <c r="F46" s="20" t="n">
+      <c r="F46" s="20">
         <v>1152</v>
       </c>
-      <c r="G46" s="20" t="n">
+      <c r="G46" s="20">
         <v>1317</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="2">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>Universidad Católica San Vicente Mártir</t>
-        </is>
-      </c>
-      <c r="B47" s="28" t="n">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="28">
         <v>120466</v>
       </c>
-      <c r="C47" s="28" t="n">
+      <c r="C47" s="28">
         <v>120</v>
       </c>
-      <c r="D47" s="28" t="n">
+      <c r="D47" s="28">
         <v>13205</v>
       </c>
-      <c r="E47" s="28" t="n">
+      <c r="E47" s="28">
         <v>14158</v>
       </c>
-      <c r="F47" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G47" s="28" t="n">
+      <c r="F47" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="28">
         <v>840</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="2">
-      <c r="A48" s="38" t="inlineStr">
-        <is>
-          <t>Centro Florida Universitaria</t>
-        </is>
-      </c>
-      <c r="B48" s="20" t="n">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="20">
         <v>25828</v>
       </c>
-      <c r="C48" s="20" t="n">
+      <c r="C48" s="20">
         <v>320</v>
       </c>
-      <c r="D48" s="20" t="n">
+      <c r="D48" s="20">
         <v>3146</v>
       </c>
-      <c r="E48" s="20" t="n">
+      <c r="E48" s="20">
         <v>9902</v>
       </c>
-      <c r="F48" s="20" t="n">
+      <c r="F48" s="20">
         <v>88</v>
       </c>
-      <c r="G48" s="20" t="n">
+      <c r="G48" s="20">
         <v>272</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="2">
-      <c r="A49" s="39" t="inlineStr">
-        <is>
-          <t>Universidad Europea de València</t>
-        </is>
-      </c>
-      <c r="B49" s="28" t="n">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="28">
         <v>154665</v>
       </c>
-      <c r="C49" s="28" t="n">
+      <c r="C49" s="28">
         <v>2268</v>
       </c>
-      <c r="D49" s="28" t="n">
+      <c r="D49" s="28">
         <v>2362</v>
       </c>
-      <c r="E49" s="28" t="n">
+      <c r="E49" s="28">
         <v>7697</v>
       </c>
-      <c r="F49" s="28" t="n">
+      <c r="F49" s="28">
         <v>818</v>
       </c>
-      <c r="G49" s="28" t="n">
+      <c r="G49" s="28">
         <v>162</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="2">
-      <c r="A50" s="10" t="inlineStr">
-        <is>
-          <t>Centro Universitario EDEM</t>
-        </is>
-      </c>
-      <c r="B50" s="20" t="n">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="20">
         <v>1244</v>
       </c>
-      <c r="C50" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D50" s="20" t="n">
+      <c r="C50" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="20">
         <v>0</v>
       </c>
-      <c r="E50" s="20" t="n">
+      <c r="E50" s="20">
         <v>670</v>
       </c>
-      <c r="F50" s="20" t="n">
+      <c r="F50" s="20">
         <v>10</v>
       </c>
-      <c r="G50" s="20" t="n">
+      <c r="G50" s="20">
         <v>200</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="2">
-      <c r="A51" s="39" t="inlineStr">
-        <is>
-          <t>VIU</t>
-        </is>
-      </c>
-      <c r="B51" s="28" t="n">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="28">
         <v>404522</v>
       </c>
-      <c r="C51" s="28" t="n">
+      <c r="C51" s="28">
         <v>29322</v>
       </c>
-      <c r="D51" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E51" s="28" t="n">
+      <c r="D51" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="28">
         <v>18661</v>
       </c>
-      <c r="F51" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G51" s="28" t="n">
+      <c r="F51" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="28">
         <v>964</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="2">
-      <c r="A52" s="54" t="inlineStr">
-        <is>
-          <t>Otras Bibliotecas</t>
-        </is>
-      </c>
-      <c r="B52" s="20" t="n"/>
-      <c r="C52" s="20" t="n"/>
-      <c r="D52" s="20" t="n"/>
-      <c r="E52" s="20" t="n"/>
-      <c r="F52" s="20" t="n"/>
-      <c r="G52" s="20" t="n"/>
-    </row>
-    <row r="53" ht="15" customFormat="1" customHeight="1" s="32">
-      <c r="A53" s="39" t="inlineStr">
-        <is>
-          <t>Biblioteca Valenciana Nicolau Primitiu</t>
-        </is>
-      </c>
-      <c r="B53" s="28" t="n">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="28">
         <v>1640000</v>
       </c>
-      <c r="C53" s="28" t="n">
+      <c r="C53" s="28">
         <v>1025000</v>
       </c>
-      <c r="D53" s="28" t="n">
+      <c r="D53" s="28">
         <v>10384</v>
       </c>
-      <c r="E53" s="28" t="n">
+      <c r="E53" s="28">
         <v>34530</v>
       </c>
-      <c r="F53" s="28" t="n">
+      <c r="F53" s="28">
         <v>8285</v>
       </c>
-      <c r="G53" s="28" t="n">
+      <c r="G53" s="28">
         <v>44</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="2">
-      <c r="A54" s="38" t="inlineStr">
-        <is>
-          <t>Biblitoteca Pública del Estado en València Pilar Faus</t>
-        </is>
-      </c>
-      <c r="B54" s="20" t="n">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="20">
         <v>199070</v>
       </c>
-      <c r="C54" s="20" t="n">
+      <c r="C54" s="20">
         <v>15478</v>
       </c>
-      <c r="D54" s="20" t="n">
+      <c r="D54" s="20">
         <v>132375</v>
       </c>
-      <c r="E54" s="20" t="n">
+      <c r="E54" s="20">
         <v>134808</v>
       </c>
-      <c r="F54" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" s="20" t="n">
+      <c r="F54" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="20">
         <v>503</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="2">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>Biblioteca de la Mujer</t>
-        </is>
-      </c>
-      <c r="B55" s="28" t="n">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="28">
         <v>14441</v>
       </c>
-      <c r="C55" s="28" t="n">
+      <c r="C55" s="28">
         <v>196</v>
       </c>
-      <c r="D55" s="28" t="n">
+      <c r="D55" s="28">
         <v>1874</v>
       </c>
-      <c r="E55" s="28" t="n">
+      <c r="E55" s="28">
         <v>4023</v>
       </c>
-      <c r="F55" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G55" s="28" t="n">
+      <c r="F55" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="28">
         <v>16</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="2">
-      <c r="A56" s="38" t="inlineStr">
-        <is>
-          <t>Biblioteca Ateneo Mercantil</t>
-        </is>
-      </c>
-      <c r="B56" s="20" t="n">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="20">
         <v>53358</v>
       </c>
-      <c r="C56" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D56" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E56" s="20" t="n">
+      <c r="C56" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="20">
         <v>4500</v>
       </c>
-      <c r="F56" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1" s="2">
-      <c r="A57" s="39" t="inlineStr">
-        <is>
-          <t>Bellas Artes (Calle San Pío V) (1)</t>
-        </is>
-      </c>
-      <c r="B57" s="28" t="n">
+      <c r="F56" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="28">
         <v>41856</v>
       </c>
-      <c r="C57" s="28" t="n">
+      <c r="C57" s="28">
         <v>1093</v>
       </c>
-      <c r="D57" s="28" t="n">
+      <c r="D57" s="28">
         <v>147</v>
       </c>
-      <c r="E57" s="28" t="n">
+      <c r="E57" s="28">
         <v>64</v>
       </c>
-      <c r="F57" s="28" t="n">
+      <c r="F57" s="28">
         <v>64</v>
       </c>
-      <c r="G57" s="28" t="n">
+      <c r="G57" s="28">
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="2">
-      <c r="A58" s="51" t="inlineStr">
-        <is>
-          <t>IVAM</t>
-        </is>
-      </c>
-      <c r="B58" s="20" t="n">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="20">
         <v>55126</v>
       </c>
-      <c r="C58" s="20" t="n">
+      <c r="C58" s="20">
         <v>1246</v>
       </c>
-      <c r="D58" s="20" t="n">
+      <c r="D58" s="20">
         <v>421</v>
       </c>
-      <c r="E58" s="20" t="n">
+      <c r="E58" s="20">
         <v>1302</v>
       </c>
-      <c r="F58" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G58" s="20" t="n">
+      <c r="F58" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="20">
         <v>26</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="2">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>Biblioteca del MuVIM</t>
-        </is>
-      </c>
-      <c r="B59" s="28" t="n">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="28">
         <v>38746</v>
       </c>
-      <c r="C59" s="28" t="n">
+      <c r="C59" s="28">
         <v>1207</v>
       </c>
-      <c r="D59" s="28" t="n">
+      <c r="D59" s="28">
         <v>28</v>
       </c>
-      <c r="E59" s="28" t="n">
+      <c r="E59" s="28">
         <v>226</v>
       </c>
-      <c r="F59" s="28" t="n">
+      <c r="F59" s="28">
         <v>226</v>
       </c>
-      <c r="G59" s="28" t="n">
+      <c r="G59" s="28">
         <v>24</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="2">
-      <c r="A60" s="38" t="inlineStr">
-        <is>
-          <t>Biblioteca del Museo de Prehistoria</t>
-        </is>
-      </c>
-      <c r="B60" s="20" t="n">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="20">
         <v>72742</v>
       </c>
-      <c r="C60" s="20" t="n">
+      <c r="C60" s="20">
         <v>1463</v>
       </c>
-      <c r="D60" s="20" t="n">
+      <c r="D60" s="20">
         <v>269</v>
       </c>
-      <c r="E60" s="20" t="n">
+      <c r="E60" s="20">
         <v>2134</v>
       </c>
-      <c r="F60" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G60" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="2">
-      <c r="A61" s="39" t="inlineStr">
-        <is>
-          <t>Biblioteca de Etnología</t>
-        </is>
-      </c>
-      <c r="B61" s="28" t="n">
+      <c r="F60" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="28">
         <v>39494</v>
       </c>
-      <c r="C61" s="28" t="n">
+      <c r="C61" s="28">
         <v>64816</v>
       </c>
-      <c r="D61" s="28" t="n">
+      <c r="D61" s="28">
         <v>392</v>
       </c>
-      <c r="E61" s="28" t="n">
+      <c r="E61" s="28">
         <v>830</v>
       </c>
-      <c r="F61" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G61" s="28" t="n">
+      <c r="F61" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="28">
         <v>54</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="2">
-      <c r="A62" s="10" t="inlineStr">
-        <is>
-          <t>Biblioteca Auxiliar del Archivo del Reino</t>
-        </is>
-      </c>
-      <c r="B62" s="20" t="n">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="20">
         <v>23437</v>
       </c>
-      <c r="C62" s="20" t="n">
+      <c r="C62" s="20">
         <v>278</v>
       </c>
-      <c r="D62" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E62" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F62" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G62" s="20" t="n">
+      <c r="D62" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="20">
         <v>50</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="2">
-      <c r="A63" s="39" t="inlineStr">
-        <is>
-          <t>Biblioteca Museo Taurino (3)</t>
-        </is>
-      </c>
-      <c r="B63" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C63" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D63" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E63" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F63" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G63" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="12.75" customHeight="1" s="2">
-      <c r="A64" s="50" t="inlineStr">
-        <is>
-          <t>Nota: (1) Uso restringido a investigadores. Cerrada al púlico desde febrero de 2016. (2) Incluye la biblioteca de la Facultad de Teología San Vicente Ferrer. (3) Cerrada en el 2023.</t>
-        </is>
-      </c>
-      <c r="B64" s="33" t="n"/>
-      <c r="C64" s="33" t="n"/>
-      <c r="D64" s="33" t="n"/>
-      <c r="E64" s="33" t="n"/>
-      <c r="F64" s="33" t="n"/>
-      <c r="G64" s="33" t="n"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1" s="2">
-      <c r="A65" s="49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Servicio de Acción Cultural. Ayuntamiento Valencia; S. Patrimonio Histórico y Cultural del Ayuntamiento de València (Serrano Morales); G. Valenciana (Bibl. Valenciana, Bibl. Pública, </t>
-        </is>
-      </c>
-      <c r="B65" s="43" t="n"/>
-      <c r="C65" s="43" t="n"/>
-      <c r="D65" s="43" t="n"/>
-      <c r="E65" s="34" t="n"/>
-      <c r="F65" s="44" t="n"/>
-      <c r="G65" s="44" t="n"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1" s="2">
-      <c r="A66" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bibl. Bellas Artes y Bibl. Auxiliar del Archivo del Reino); U. València y U. Politécnica València; Dirección General de la Mujer; R.S.E. Amigos del País;   </t>
-        </is>
-      </c>
-      <c r="B66" s="33" t="n"/>
-      <c r="C66" s="33" t="n"/>
-      <c r="D66" s="33" t="n"/>
-      <c r="E66" s="34" t="n"/>
-      <c r="F66" s="35" t="n"/>
-      <c r="G66" s="36" t="n"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1" s="2">
-      <c r="A67" s="50" t="inlineStr">
-        <is>
-          <t>Ateneo Mercantil de Valencia; IVAM; Diputación de Valencia (Biblioteca de Etnología; Biblioteca de Prehistoria y Biblioteca del MuVIM); Facultad de Teología San Vicente Ferrer;</t>
-        </is>
-      </c>
-      <c r="B67" s="33" t="n"/>
-      <c r="C67" s="33" t="n"/>
-      <c r="D67" s="33" t="n"/>
-      <c r="E67" s="34" t="n"/>
-      <c r="F67" s="35" t="n"/>
-      <c r="G67" s="36" t="n"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1" s="2">
-      <c r="A68" s="50" t="inlineStr">
-        <is>
-          <t>Universidad Cardenal Herrera - CEU; Universidad Católica San Vicente Mártir; Centro Florida Universitaria; Universidad Europea de Madrid; Centro Universitario EDEM.</t>
-        </is>
-      </c>
-      <c r="B68" s="33" t="n"/>
-      <c r="C68" s="33" t="n"/>
-      <c r="D68" s="33" t="n"/>
-      <c r="E68" s="34" t="n"/>
-      <c r="F68" s="35" t="n"/>
-      <c r="G68" s="36" t="n"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1" s="2">
-      <c r="A69" s="33" t="n"/>
-      <c r="B69" s="33" t="n"/>
-      <c r="C69" s="33" t="n"/>
-      <c r="D69" s="33" t="n"/>
-      <c r="E69" s="34" t="n"/>
-      <c r="F69" s="35" t="n"/>
-      <c r="G69" s="36" t="n"/>
-    </row>
-    <row r="70" ht="12.75" customHeight="1" s="2">
-      <c r="A70" s="33" t="n"/>
-      <c r="B70" s="33" t="n"/>
-      <c r="C70" s="33" t="n"/>
-      <c r="D70" s="33" t="n"/>
-      <c r="E70" s="34" t="n"/>
-      <c r="F70" s="35" t="n"/>
-      <c r="G70" s="36" t="n"/>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="33"/>
+    </row>
+    <row r="65" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="44"/>
+    </row>
+    <row r="66" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
+    </row>
+    <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
+    </row>
+    <row r="68" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+    </row>
+    <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+    </row>
+    <row r="70" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="77"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja26">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="44.7109375" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.85546875" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.85546875" customWidth="1" style="1" min="3" max="6"/>
-    <col width="13.85546875" customWidth="1" style="2" min="7" max="8"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="55" t="inlineStr">
-        <is>
-          <t>2. Archivos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="15" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="15" t="n"/>
-      <c r="H1" s="15" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="n"/>
-      <c r="B2" s="15" t="n"/>
-      <c r="C2" s="12" t="n"/>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="12" t="n"/>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-    </row>
-    <row r="3" ht="38.25" customHeight="1" s="2">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Documentos de archivo</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>Metros lineales de documentos</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr">
-        <is>
-          <t>Volúmenes biblioteca auxiliar</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Publicaciones</t>
-        </is>
-      </c>
-      <c r="F3" s="13" t="inlineStr">
-        <is>
-          <t>Consultas de documentos</t>
-        </is>
-      </c>
-      <c r="G3" s="13" t="inlineStr">
-        <is>
-          <t>Préstamos</t>
-        </is>
-      </c>
-      <c r="H3" s="13" t="inlineStr">
-        <is>
-          <t>Personas investigadoras / Lectoras</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>Archivo Histórico de la C. Valenciana</t>
-        </is>
-      </c>
-      <c r="B4" s="46" t="n">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="46">
         <v>197720</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="46">
         <v>24850</v>
       </c>
-      <c r="D4" s="46" t="n">
+      <c r="D4" s="46">
         <v>4950</v>
       </c>
-      <c r="E4" s="29" t="n">
+      <c r="E4" s="29">
         <v>25</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="20">
         <v>1803</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="17">
         <v>391</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Archivo del Reino</t>
-        </is>
-      </c>
-      <c r="B5" s="28" t="n">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="28">
         <v>23437</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="21">
         <v>18290</v>
       </c>
-      <c r="D5" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="28" t="n">
+      <c r="D5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="28">
         <v>278</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="21">
         <v>9395</v>
       </c>
-      <c r="G5" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="7">
         <v>2907</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>Archivo Gral. y Fotográfico de la Diputación de València</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="n">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="20">
         <v>27661</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="20">
         <v>9674</v>
       </c>
-      <c r="D6" s="29" t="n">
+      <c r="D6" s="29">
         <v>7027</v>
       </c>
-      <c r="E6" s="29" t="n">
+      <c r="E6" s="29">
         <v>28</v>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="20">
         <v>1624</v>
       </c>
-      <c r="G6" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="G6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t>Archivo Histórico Municipal</t>
-        </is>
-      </c>
-      <c r="B7" s="28" t="n">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="28">
         <v>8197</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="21">
         <v>8000</v>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="21" t="n">
+      <c r="D7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="21">
         <v>4864</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="16">
         <v>59</v>
       </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="15" t="inlineStr">
-        <is>
-          <t>Archivo Diocesano (*)</t>
-        </is>
-      </c>
-      <c r="B8" s="46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" s="47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" s="47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" s="47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" s="46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" s="47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="2">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t>Archivo Intermedio Municipal</t>
-        </is>
-      </c>
-      <c r="B9" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" s="21" t="n">
+      <c r="H7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="21">
         <v>10000</v>
       </c>
-      <c r="D9" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="21" t="n">
+      <c r="D9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="21">
         <v>4000</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="7">
         <v>1750</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="2">
-      <c r="A10" s="45" t="inlineStr">
-        <is>
-          <t>Nota: (*) Debido al traslado de parte de los Fondos y Documentación Auxiliar del Archivo Diocesano, no se ha realizado inventario alguno en el año 2023.</t>
-        </is>
-      </c>
-      <c r="B10" s="22" t="n"/>
-      <c r="C10" s="18" t="n"/>
-      <c r="D10" s="18" t="n"/>
-      <c r="E10" s="18" t="n"/>
-      <c r="F10" s="18" t="n"/>
-      <c r="G10" s="22" t="n"/>
-      <c r="H10" s="22" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="2">
-      <c r="A11" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: S. Patrimonio Histórico y Artístico. Ayuntamiento de València (Archivo Histórico Municipal, Archivo Intermedio Municipal); G. Valenciana (Archivo del Reino, Archivo Histórico de la Comunitat Valenciana); </t>
-        </is>
-      </c>
-      <c r="B11" s="22" t="n"/>
-      <c r="C11" s="18" t="n"/>
-      <c r="D11" s="18" t="n"/>
-      <c r="E11" s="18" t="n"/>
-      <c r="F11" s="18" t="n"/>
-      <c r="G11" s="22" t="n"/>
-      <c r="H11" s="22" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="2">
-      <c r="A12" s="22" t="inlineStr">
-        <is>
-          <t>Arzobispado de València (Archivo Diocesano); Diputació de València (Archivo General y Fotográfico).</t>
-        </is>
-      </c>
-      <c r="B12" s="23" t="n"/>
-      <c r="C12" s="23" t="n"/>
-      <c r="D12" s="23" t="n"/>
-      <c r="E12" s="23" t="n"/>
-      <c r="F12" s="23" t="n"/>
-      <c r="G12" s="23" t="n"/>
-      <c r="H12" s="23" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="24" t="n"/>
-      <c r="B13" s="25" t="n"/>
-      <c r="C13" s="26" t="n"/>
-      <c r="D13" s="26" t="n"/>
-      <c r="E13" s="26" t="n"/>
-      <c r="G13" s="23" t="n"/>
-      <c r="H13" s="27" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="37" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="37" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="37" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="37" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="37" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="37" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="37" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="37" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="37" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="37" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="37" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="37" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="37" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="37" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="37" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="37" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="37" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="37" t="n"/>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="68"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>